--- a/src/main/webapp/template/批量导入工序模板.xlsx
+++ b/src/main/webapp/template/批量导入工序模板.xlsx
@@ -72,8 +72,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -378,16 +380,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="16.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.75" customWidth="1"/>
+    <col min="3" max="3" width="22.125" customWidth="1"/>
+    <col min="4" max="4" width="25.375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -400,6 +408,12 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/webapp/template/批量导入工序模板.xlsx
+++ b/src/main/webapp/template/批量导入工序模板.xlsx
@@ -20,15 +20,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>工序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>单价</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工序名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -383,7 +383,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -399,13 +399,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
